--- a/data/TopOnePercent/Northeast Normal University.xlsx
+++ b/data/TopOnePercent/Northeast Normal University.xlsx
@@ -184,16 +184,16 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>3966.0</v>
+        <v>3702.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>73721.0</v>
+        <v>66391.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>18.59</v>
+        <v>17.93</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>40.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="8">
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>902.0</v>
+        <v>879.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>19449.0</v>
+        <v>19467.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>21.56</v>
+        <v>22.15</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,16 +228,16 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>611.0</v>
+        <v>604.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>5706.0</v>
+        <v>5719.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>9.34</v>
+        <v>9.47</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="10">
@@ -250,16 +250,16 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>397.0</v>
+        <v>405.0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>5682.0</v>
+        <v>5201.0</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>14.31</v>
+        <v>12.84</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="11">
@@ -272,16 +272,16 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>911.0</v>
+        <v>883.0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>5247.0</v>
+        <v>4523.0</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>5.76</v>
+        <v>5.12</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
@@ -294,13 +294,13 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>492.0</v>
+        <v>484.0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>4211.0</v>
+        <v>3904.0</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>8.56</v>
+        <v>8.07</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>3.0</v>
@@ -316,13 +316,13 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>9796.0</v>
+        <v>9428.0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>139360.0</v>
+        <v>129944.0</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>14.23</v>
+        <v>13.78</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>113.0</v>
@@ -331,7 +331,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
